--- a/git_testfile.xlsx
+++ b/git_testfile.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shailaja.m\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD186517-EC53-424A-AA3B-C2817C301426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A137D7-F2C0-43E3-907A-82F855CDDB0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{9A077CE8-86E4-4876-8547-E14F0F5D8082}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>sample file for GIT testing</t>
+  </si>
+  <si>
+    <t>updated the file</t>
   </si>
 </sst>
 </file>
@@ -379,19 +382,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562E1427-75D8-4D2B-8327-851D43516CAA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
